--- a/examples/fundraiser.xlsx
+++ b/examples/fundraiser.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bju-my.sharepoint.com/personal/sschaub_bju_edu/Documents/current/www/cps301/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\cps301\class\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03722FA-7F85-4570-8E24-B3E016C6CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15192" windowHeight="9216"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Attempt 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Attempt 3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>Cycling Fundraiser</t>
   </si>
@@ -53,9 +54,6 @@
     <t>J 213</t>
   </si>
   <si>
-    <t>G 223</t>
-  </si>
-  <si>
     <t>Pledge/Mile</t>
   </si>
   <si>
@@ -108,16 +106,31 @@
   </si>
   <si>
     <t>I 223</t>
+  </si>
+  <si>
+    <t>Pledges</t>
+  </si>
+  <si>
+    <t>CyclistID</t>
+  </si>
+  <si>
+    <t>PledgerID</t>
+  </si>
+  <si>
+    <t>MM 105</t>
+  </si>
+  <si>
+    <t>sabbo921@students.bju.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -138,14 +151,21 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -168,14 +188,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,10 +206,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8182AB7F-0FC0-4219-BA37-90E39157CB30}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,6 +313,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,6 +365,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,10 +557,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -542,15 +610,15 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -566,30 +634,30 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -600,13 +668,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -617,13 +685,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -634,16 +702,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5">
         <v>0.45</v>
@@ -651,16 +719,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5">
         <v>0.8</v>
@@ -669,11 +737,11 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1"/>
-    <hyperlink ref="D12" r:id="rId2"/>
-    <hyperlink ref="D13" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -682,167 +750,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1EE358-8091-467E-A293-37F2BCC83DBC}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D20" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{42EB3E83-F932-4BE3-9994-C3DD1B15C9B6}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{DD5FA81E-AB0C-4508-86DB-7A90A9F31B13}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{05F83816-60D4-42BB-8095-56C892C0FD9A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AA643C-F53C-4D11-9BBB-2637D836768D}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>101</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>102</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>103</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>104</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>101</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>102</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>102</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>103</v>
+      </c>
+      <c r="C21" s="13">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
         <v>0.45</v>
       </c>
     </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>103</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>